--- a/gameData/shared/AllianceShrine.xlsx
+++ b/gameData/shared/AllianceShrine.xlsx
@@ -294,20 +294,20 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>STR_1starBonus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STR_2starBonus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STR_3starBonus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>STR_stageLevel</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR_star1_Bonus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR_star3_Bonus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR_star2_Bonus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -881,8 +881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -896,7 +896,7 @@
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" ht="15">
       <c r="A1" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>35</v>
@@ -929,10 +929,10 @@
         <v>34</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>78</v>

--- a/gameData/shared/AllianceShrine.xlsx
+++ b/gameData/shared/AllianceShrine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4960" yWindow="2440" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="7580" yWindow="3100" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="shrineStage" sheetId="4" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="110">
   <si>
     <t>INT_suggestPlayer</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -359,31 +359,35 @@
     <t>swordsman_1:20,sentinel_1:20,ranger_1:20&amp;swordsman_1:20,sentinel_1:20,ranger_1:20</t>
   </si>
   <si>
-    <t>STR_star2Rewards</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STR_star3Rewards</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>INT_star3Honour</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>INT_goldKill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_bronzeKill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR_bronzeRewards</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>INT_silverKill</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>INT_goldKill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_bronzeKill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STR_star1Rewards</t>
+    <t>STR_silverRewards</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR_goldRewards</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swordsman_1:10,sentinel_1:10,ranger_1:10&amp;swordsman_1:10,sentinel_1:10,ranger_1:10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1059,7 +1063,7 @@
   <dimension ref="A1:R31"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1106,25 +1110,25 @@
         <v>38</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="15">
@@ -1150,7 +1154,7 @@
         <v>350</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="I2" s="2">
         <v>50</v>
